--- a/TestData/Data/Repports/Schoollevel.xlsx
+++ b/TestData/Data/Repports/Schoollevel.xlsx
@@ -22,37 +22,37 @@
     <x:t>MessageType</x:t>
   </x:si>
   <x:si>
-    <x:t>Mise à jour de l'entity Baccalauréat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Update_Success</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity 2 ème Année du Baccalauréat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Technicien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Bac+3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Bac+2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity En cours de préparation du bac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Bac+5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Tronc Commun de l'Enseignement Secondaire Qualifiant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Bac+4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mise à jour de l'entity Qualification</x:t>
+    <x:t>Insertion de l'entity Baccalauréat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Add_Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity 2 ème Année du Baccalauréat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Technicien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Bac+3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Bac+2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity En cours de préparation du bac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Bac+5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Tronc Commun de l'Enseignement Secondaire Qualifiant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Bac+4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Insertion de l'entity Qualification</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -420,7 +420,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="68.890625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="66.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="16.175425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
